--- a/PY32F002A_003_030/ReMapIO/remap_pin_py32f0xx.xlsx
+++ b/PY32F002A_003_030/ReMapIO/remap_pin_py32f0xx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ACHIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DEBAC8-44EA-4718-8986-E310AC9A4447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EFE6B5-C971-4418-BB69-3557D41A32FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="975" windowWidth="29685" windowHeight="18195" xr2:uid="{40B27D41-93E5-4CD2-960F-D79D07F49E7E}"/>
+    <workbookView xWindow="8970" yWindow="1545" windowWidth="29685" windowHeight="18195" xr2:uid="{40B27D41-93E5-4CD2-960F-D79D07F49E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="146">
   <si>
     <t>qfn16</t>
   </si>
@@ -416,6 +416,63 @@
   </si>
   <si>
     <t>св.</t>
+  </si>
+  <si>
+    <t>OSC32_OUT</t>
+  </si>
+  <si>
+    <t>OSC32_IN</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>COMP2_INP</t>
+  </si>
+  <si>
+    <t>ADC_IN0</t>
+  </si>
+  <si>
+    <t>COMP1_INM</t>
+  </si>
+  <si>
+    <t>ADC_IN1</t>
+  </si>
+  <si>
+    <t>ADC_IN2</t>
+  </si>
+  <si>
+    <t>ADC_IN3</t>
+  </si>
+  <si>
+    <t>COMP1_INP</t>
+  </si>
+  <si>
+    <t>COMP2_INM</t>
+  </si>
+  <si>
+    <t>ADC_IN4</t>
+  </si>
+  <si>
+    <t>ADC_IN5</t>
+  </si>
+  <si>
+    <t>ADC_IN6</t>
+  </si>
+  <si>
+    <t>ADC_IN7</t>
+  </si>
+  <si>
+    <t>ADC_IN8</t>
+  </si>
+  <si>
+    <t>ADC_IN9</t>
+  </si>
+  <si>
+    <t>PVD_IN</t>
+  </si>
+  <si>
+    <t>Additional</t>
   </si>
 </sst>
 </file>
@@ -507,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -530,11 +587,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,10 +749,40 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -872,896 +1097,1388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F1B09D-8CC0-45B0-8483-C65F32E65983}">
-  <dimension ref="C2:T34"/>
+  <dimension ref="C2:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="1.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="1.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
+    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="E3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W3" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W4" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W5" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J6" s="24"/>
+      <c r="K6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L6" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S6" s="24"/>
+      <c r="T6" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U6" s="24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="V6" s="24"/>
+      <c r="W6" s="26"/>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J7" s="24"/>
+      <c r="K7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="R6" t="s">
+      <c r="U7" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="V7" s="24"/>
+      <c r="W7" s="26"/>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J8" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N8" s="24"/>
+      <c r="O8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V8" s="24"/>
+      <c r="W8" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L9" s="24"/>
+      <c r="M9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N9" s="24"/>
+      <c r="O9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V9" s="24"/>
+      <c r="W9" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K10" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="T9" t="s">
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I11" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K11" s="24"/>
+      <c r="L11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M11" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N11" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O10" t="s">
+      <c r="R11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S11" s="24"/>
+      <c r="T11" s="24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="26"/>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M12" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N12" s="24"/>
+      <c r="O12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="O11" t="s">
+      <c r="R12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S12" s="24"/>
+      <c r="T12" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="3:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="26"/>
+    </row>
+    <row r="13" spans="3:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="I13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="J13" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="K13" s="28"/>
+      <c r="L13" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="M13" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="N13" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="O13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="P13" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="S13" s="28"/>
+      <c r="T13" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="U13" s="28" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="3:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="V13" s="28"/>
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" spans="3:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="I14" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="J14" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="K14" s="28"/>
+      <c r="L14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="M14" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="N14" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="O14" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="P14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="S14" s="28"/>
+      <c r="T14" s="28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="3:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="29"/>
+    </row>
+    <row r="15" spans="3:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="I15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="J15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="K15" s="28"/>
+      <c r="L15" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="M15" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="N15" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="O15" s="28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="29"/>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J16" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N16" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O16" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="3:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="26"/>
+    </row>
+    <row r="17" spans="3:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="I17" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="P17" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="V17" s="28"/>
+      <c r="W17" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="T17" t="s">
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I19" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M19" s="33"/>
+      <c r="N19" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O19" s="33" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C20" s="15"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="26"/>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J21" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N21" s="20"/>
+      <c r="O21" s="20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="22"/>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I22" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J22" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="L21" t="s">
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="26"/>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I23" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J23" s="24"/>
+      <c r="K23" s="24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="26"/>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I24" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J24" s="24"/>
+      <c r="K24" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L24" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M24" s="24"/>
+      <c r="N24" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="L23" t="s">
+      <c r="O24" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="26"/>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I25" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J25" s="24"/>
+      <c r="K25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M25" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="K24" t="s">
+      <c r="N25" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O25" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="26"/>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C26" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I26" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J26" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K26" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I25" t="s">
+      <c r="L26" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M26" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="K25" t="s">
+      <c r="N26" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="L25" t="s">
+      <c r="O26" s="24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="26"/>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I27" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J27" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I26" t="s">
+      <c r="L27" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M27" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K26" t="s">
+      <c r="N27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O27" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="26"/>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C28" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I28" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J28" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K28" s="24"/>
+      <c r="L28" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M28" s="24"/>
+      <c r="N28" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L27" t="s">
+      <c r="O28" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="26"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C29" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F28" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J29" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K29" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L29" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M29" s="33"/>
+      <c r="N29" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="L28" t="s">
+      <c r="O29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="M28" t="s">
+      <c r="P29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="T29" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="R28" t="s">
+      <c r="U29" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="T28" t="s">
+      <c r="V29" s="33"/>
+      <c r="W29" s="34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C30" s="15"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="26"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C31" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F31" s="46"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K31" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L31" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="N30" t="s">
+      <c r="Q31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="22"/>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C32" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="H31" t="s">
+      <c r="F32" s="28"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L32" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N31" t="s">
+      <c r="Q32" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="O31" t="s">
+      <c r="R32" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="S32" s="24"/>
+      <c r="T32" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="R31" t="s">
+      <c r="U32" s="24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="V32" s="24"/>
+      <c r="W32" s="26"/>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C33" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="H32" t="s">
+      <c r="F33" s="28"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L33" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M33" s="24"/>
+      <c r="N33" s="24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="26"/>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C34" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I33" t="s">
+      <c r="L34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O33" t="s">
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="T33" t="s">
+      <c r="V34" s="24"/>
+      <c r="W34" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C35" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="31" t="s">
         <v>106</v>
       </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1771,31 +2488,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FAA38D-A696-4A33-B330-09B840BC461B}">
-  <dimension ref="A3:V31"/>
+  <dimension ref="A3:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="22" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="25" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>121</v>
       </c>
@@ -1804,11 +2525,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>124</v>
       </c>
@@ -1816,60 +2537,62 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="U7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Y7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1880,8 +2603,26 @@
       <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="26"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -1893,20 +2634,40 @@
       <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="26"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>50</v>
       </c>
@@ -1917,29 +2678,40 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="26"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>62</v>
       </c>
@@ -1950,29 +2722,43 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="N11" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="R11" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" s="24"/>
+      <c r="T11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" s="24"/>
+      <c r="Y11" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -1986,51 +2772,82 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="V12" t="s">
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="1">
         <v>5</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="J13" t="s">
+      <c r="H13" s="24"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" s="24"/>
+      <c r="P13" s="24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="26"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>73</v>
       </c>
@@ -2041,38 +2858,52 @@
       <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" s="24"/>
+      <c r="M14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" s="24"/>
+      <c r="S14" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="T14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="U14" t="s">
+      <c r="X14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="V14" t="s">
+      <c r="Y14" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>49</v>
       </c>
@@ -2085,38 +2916,52 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" s="24"/>
+      <c r="M15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="R15" s="24"/>
+      <c r="S15" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="T15" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="U15" t="s">
+      <c r="X15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="V15" t="s">
+      <c r="Y15" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>55</v>
       </c>
@@ -2129,32 +2974,48 @@
       <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="K16" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" s="24"/>
+      <c r="M16" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="N16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" s="24"/>
+      <c r="V16" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="T16" t="s">
+      <c r="W16" s="24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X16" s="24"/>
+      <c r="Y16" s="26"/>
+    </row>
+    <row r="17" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>61</v>
       </c>
@@ -2165,32 +3026,48 @@
       <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" s="24"/>
+      <c r="M17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="K17" t="s">
+      <c r="N17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" s="24"/>
+      <c r="V17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T17" t="s">
+      <c r="W17" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X17" s="24"/>
+      <c r="Y17" s="26"/>
+    </row>
+    <row r="18" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>74</v>
       </c>
@@ -2201,38 +3078,50 @@
       <c r="E18" t="s">
         <v>14</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="L18" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" s="24"/>
+      <c r="S18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="V18" t="s">
+      <c r="X18" s="24"/>
+      <c r="Y18" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>58</v>
       </c>
@@ -2245,29 +3134,44 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" s="24"/>
+      <c r="O19" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="R19" s="24"/>
+      <c r="S19" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" s="24"/>
+      <c r="Y19" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
@@ -2278,32 +3182,46 @@
       <c r="E20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I20" t="s">
+      <c r="L20" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" s="24"/>
+      <c r="O20" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="O20" t="s">
+      <c r="R20" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="V20" t="s">
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
@@ -2316,41 +3234,52 @@
       <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" s="24"/>
+      <c r="N21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L21" t="s">
+      <c r="O21" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="N21" t="s">
+      <c r="Q21" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="R21" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="S21" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="T21" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" s="24"/>
+      <c r="V21" s="24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="26"/>
+    </row>
+    <row r="22" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>66</v>
       </c>
@@ -2361,23 +3290,39 @@
       <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="5"/>
+      <c r="H22" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="26"/>
+    </row>
+    <row r="23" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2388,8 +3333,26 @@
       <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="26"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>82</v>
       </c>
@@ -2400,50 +3363,61 @@
       <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" s="33"/>
+      <c r="N24" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="R24" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="P24" t="s">
+      <c r="S24" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="T24" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" s="33"/>
+      <c r="V24" s="33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H27" s="7"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="34"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>